--- a/tests.xlsx
+++ b/tests.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUFF\Documents\Egyetem\szakdolgozat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUFF\Documents\Egyetem\szakdolgozat\szakdolgozat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5B3EDA-2DDB-4C19-8F50-4A611E58DAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB16728-F275-4722-BF20-287B24393775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16B1F42F-497A-4036-8175-4FEE2FD02B2C}"/>
   </bookViews>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -77,6 +76,60 @@
   </si>
   <si>
     <t>dc -&gt; ac</t>
+  </si>
+  <si>
+    <t>Hiányzó vonal</t>
+  </si>
+  <si>
+    <t>battery</t>
+  </si>
+  <si>
+    <t>capacitor</t>
+  </si>
+  <si>
+    <t>inductor</t>
+  </si>
+  <si>
+    <t>lamp</t>
+  </si>
+  <si>
+    <t>resistor</t>
+  </si>
+  <si>
+    <t>source_AC</t>
+  </si>
+  <si>
+    <t>source_DC</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>elem</t>
+  </si>
+  <si>
+    <t>kondenzátor</t>
+  </si>
+  <si>
+    <t>tekercs</t>
+  </si>
+  <si>
+    <t>lámpa</t>
+  </si>
+  <si>
+    <t>ellenállás</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>kapcsoló</t>
+  </si>
+  <si>
+    <t>Összeköttetés hibák típus szerint:</t>
   </si>
 </sst>
 </file>
@@ -109,7 +162,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -126,12 +179,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -146,6 +208,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -461,18 +527,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B00C75-DBA2-4DD4-8C14-92195DEE5212}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="11" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1"/>
+    <col min="18" max="18" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -502,8 +570,23 @@
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="R1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1">
+        <v>1</v>
+      </c>
+      <c r="T1">
+        <v>2</v>
+      </c>
+      <c r="U1">
+        <v>3</v>
+      </c>
+      <c r="V1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -517,7 +600,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="4">
-        <f>D2/B2</f>
+        <f t="shared" ref="E2:E36" si="0">D2/B2</f>
         <v>1</v>
       </c>
       <c r="F2" s="2">
@@ -535,8 +618,24 @@
       <c r="L2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="S2">
+        <f>LEN($G2)-LEN(SUBSTITUTE($G2,S$1,""))</f>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2:V17" si="1">LEN($G2)-LEN(SUBSTITUTE($G2,T$1,""))</f>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -550,7 +649,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="4">
-        <f>D3/B3</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F3">
@@ -568,8 +667,24 @@
       <c r="L3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="S3">
+        <f t="shared" ref="S3:V36" si="2">LEN($G3)-LEN(SUBSTITUTE($G3,S$1,""))</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -583,7 +698,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="4">
-        <f>D4/B4</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F4">
@@ -601,8 +716,24 @@
       <c r="L4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="S4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -616,7 +747,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="4">
-        <f>D5/B5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F5">
@@ -634,8 +765,24 @@
       <c r="L5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="S5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -649,7 +796,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="4">
-        <f>D6/B6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F6">
@@ -661,8 +808,30 @@
       <c r="H6" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -676,7 +845,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="4">
-        <f>D7/B7</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F7">
@@ -688,8 +857,24 @@
       <c r="H7" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="S7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -703,7 +888,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="4">
-        <f>D8/B8</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F8">
@@ -715,8 +900,24 @@
       <c r="H8" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="S8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -730,7 +931,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="4">
-        <f>D9/B9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F9">
@@ -742,8 +943,24 @@
       <c r="H9" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -757,7 +974,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="4">
-        <f>D10/B10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F10">
@@ -769,8 +986,24 @@
       <c r="H10" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -784,7 +1017,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="4">
-        <f>D11/B11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F11">
@@ -796,8 +1029,24 @@
       <c r="H11" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -811,7 +1060,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="4">
-        <f>D12/B12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F12">
@@ -823,8 +1072,24 @@
       <c r="H12" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -838,7 +1103,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="4">
-        <f>D13/B13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F13">
@@ -850,8 +1115,33 @@
       <c r="H13" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13">
+        <v>31</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -865,7 +1155,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="4">
-        <f>D14/B14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F14">
@@ -877,8 +1167,33 @@
       <c r="H14" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14">
+        <v>38</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -892,7 +1207,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="4">
-        <f>D15/B15</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F15">
@@ -904,8 +1219,33 @@
       <c r="H15" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15">
+        <v>38</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -919,7 +1259,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="4">
-        <f>D16/B16</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F16">
@@ -931,8 +1271,33 @@
       <c r="H16" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16">
+        <v>69</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -946,7 +1311,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="4">
-        <f>D17/B17</f>
+        <f t="shared" si="0"/>
         <v>0.9285714285714286</v>
       </c>
       <c r="F17">
@@ -961,8 +1326,33 @@
       <c r="I17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17">
+        <v>67</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -976,7 +1366,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="4">
-        <f>D18/B18</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F18">
@@ -988,8 +1378,33 @@
       <c r="H18" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18">
+        <v>16</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1003,7 +1418,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="4">
-        <f>D19/B19</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F19">
@@ -1015,8 +1430,33 @@
       <c r="H19" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19">
+        <v>13</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1030,7 +1470,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="4">
-        <f>D20/B20</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F20">
@@ -1042,8 +1482,33 @@
       <c r="H20" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20">
+        <v>34</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1057,7 +1522,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="4">
-        <f>D21/B21</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F21">
@@ -1069,8 +1534,28 @@
       <c r="H21" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M21">
+        <f>SUM(M13:M20)</f>
+        <v>306</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1084,7 +1569,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="4">
-        <f>D22/B22</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F22">
@@ -1096,8 +1581,24 @@
       <c r="H22" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S22">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1111,7 +1612,7 @@
         <v>12</v>
       </c>
       <c r="E23" s="4">
-        <f>D23/B23</f>
+        <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="F23">
@@ -1126,8 +1627,24 @@
       <c r="I23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S23">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1141,7 +1658,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="4">
-        <f>D24/B24</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F24">
@@ -1153,8 +1670,24 @@
       <c r="H24" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1168,7 +1701,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="4">
-        <f>D25/B25</f>
+        <f t="shared" si="0"/>
         <v>0.9285714285714286</v>
       </c>
       <c r="F25">
@@ -1183,8 +1716,24 @@
       <c r="I25" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1198,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E26" s="4">
-        <f>D26/B26</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F26">
@@ -1210,8 +1759,24 @@
       <c r="H26" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1225,7 +1790,7 @@
         <v>6</v>
       </c>
       <c r="E27" s="4">
-        <f>D27/B27</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F27">
@@ -1237,8 +1802,24 @@
       <c r="H27" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S27">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1252,7 +1833,7 @@
         <v>7</v>
       </c>
       <c r="E28" s="4">
-        <f>D28/B28</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F28">
@@ -1264,8 +1845,24 @@
       <c r="H28" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1279,7 +1876,7 @@
         <v>11</v>
       </c>
       <c r="E29" s="4">
-        <f>D29/B29</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F29">
@@ -1291,8 +1888,24 @@
       <c r="H29" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1306,7 +1919,7 @@
         <v>11</v>
       </c>
       <c r="E30" s="4">
-        <f>D30/B30</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F30">
@@ -1318,8 +1931,24 @@
       <c r="H30" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S30">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1333,7 +1962,7 @@
         <v>11</v>
       </c>
       <c r="E31" s="4">
-        <f>D31/B31</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F31">
@@ -1345,8 +1974,24 @@
       <c r="H31" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S31">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1360,7 +2005,7 @@
         <v>8</v>
       </c>
       <c r="E32" s="4">
-        <f>D32/B32</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F32">
@@ -1372,8 +2017,24 @@
       <c r="H32" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="S32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1387,7 +2048,7 @@
         <v>9</v>
       </c>
       <c r="E33" s="4">
-        <f>D33/B33</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F33">
@@ -1398,6 +2059,191 @@
       </c>
       <c r="H33" s="6">
         <v>1</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34" s="6">
+        <v>11113</v>
+      </c>
+      <c r="H34" s="6">
+        <v>-2</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0</v>
+      </c>
+      <c r="H35" s="6">
+        <v>-1</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9">
+        <v>11</v>
+      </c>
+      <c r="C36" s="9">
+        <v>10</v>
+      </c>
+      <c r="D36" s="9">
+        <v>10</v>
+      </c>
+      <c r="E36" s="10">
+        <f t="shared" si="0"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="F36" s="9">
+        <v>1</v>
+      </c>
+      <c r="G36" s="11">
+        <v>5</v>
+      </c>
+      <c r="H36" s="11">
+        <v>-1</v>
+      </c>
+      <c r="S36" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <f>SUM(B2:B36)</f>
+        <v>306</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:D37" si="3">SUM(C2:C36)</f>
+        <v>305</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="3"/>
+        <v>301</v>
+      </c>
+      <c r="F37">
+        <f>COUNTIFS(F2:F36,"&gt;0")</f>
+        <v>22</v>
+      </c>
+      <c r="S37" s="8">
+        <f>SUM(S2:S36)</f>
+        <v>30</v>
+      </c>
+      <c r="T37" s="8">
+        <f t="shared" ref="T37:V37" si="4">SUM(T2:T36)</f>
+        <v>4</v>
+      </c>
+      <c r="U37" s="8">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="V37" s="8">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <f>SUM(F2:F36)/22</f>
+        <v>2.1363636363636362</v>
       </c>
     </row>
   </sheetData>

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUFF\Documents\Egyetem\szakdolgozat\szakdolgozat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB16728-F275-4722-BF20-287B24393775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEB995F-7536-4EFF-B503-48029E77DD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16B1F42F-497A-4036-8175-4FEE2FD02B2C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Összeköttetés hibák típus szerint:</t>
+  </si>
+  <si>
+    <t>switch -&gt; inductor</t>
   </si>
 </sst>
 </file>
@@ -193,7 +196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -210,8 +213,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -527,15 +533,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B00C75-DBA2-4DD4-8C14-92195DEE5212}">
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="11" width="13.77734375" customWidth="1"/>
+    <col min="1" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.77734375" customWidth="1"/>
     <col min="12" max="12" width="12.5546875" customWidth="1"/>
     <col min="18" max="18" width="13.77734375" customWidth="1"/>
   </cols>
@@ -600,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="4">
-        <f t="shared" ref="E2:E36" si="0">D2/B2</f>
+        <f t="shared" ref="E2:E56" si="0">D2/B2</f>
         <v>1</v>
       </c>
       <c r="F2" s="2">
@@ -1122,7 +1131,7 @@
         <v>15</v>
       </c>
       <c r="M13">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="S13">
         <f t="shared" si="2"/>
@@ -1174,7 +1183,7 @@
         <v>16</v>
       </c>
       <c r="M14">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="S14">
         <f t="shared" si="2"/>
@@ -1226,7 +1235,7 @@
         <v>17</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="S15">
         <f t="shared" si="2"/>
@@ -1241,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <f t="shared" si="1"/>
+        <f>LEN($G15)-LEN(SUBSTITUTE($G15,V$1,""))</f>
         <v>2</v>
       </c>
     </row>
@@ -1278,7 +1287,7 @@
         <v>18</v>
       </c>
       <c r="M16">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="S16">
         <f t="shared" si="2"/>
@@ -1333,7 +1342,7 @@
         <v>19</v>
       </c>
       <c r="M17">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="S17">
         <f t="shared" si="2"/>
@@ -1385,7 +1394,7 @@
         <v>20</v>
       </c>
       <c r="M18">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="S18">
         <f t="shared" si="2"/>
@@ -1437,7 +1446,7 @@
         <v>21</v>
       </c>
       <c r="M19">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="S19">
         <f t="shared" si="2"/>
@@ -1489,7 +1498,7 @@
         <v>22</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="S20">
         <f t="shared" si="2"/>
@@ -1536,7 +1545,11 @@
       </c>
       <c r="M21">
         <f>SUM(M13:M20)</f>
-        <v>306</v>
+        <v>471</v>
+      </c>
+      <c r="N21">
+        <f>SUM(N13:N20)</f>
+        <v>0</v>
       </c>
       <c r="S21">
         <f t="shared" si="2"/>
@@ -1581,6 +1594,10 @@
       <c r="H22" s="6">
         <v>1</v>
       </c>
+      <c r="M22">
+        <f>SUM(B2:B69)</f>
+        <v>471</v>
+      </c>
       <c r="S22">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -2164,23 +2181,23 @@
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="9">
-        <v>11</v>
-      </c>
-      <c r="C36" s="9">
-        <v>10</v>
-      </c>
-      <c r="D36" s="9">
+      <c r="B36" s="2">
+        <v>11</v>
+      </c>
+      <c r="C36" s="2">
+        <v>10</v>
+      </c>
+      <c r="D36" s="2">
         <v>10</v>
       </c>
       <c r="E36" s="10">
         <f t="shared" si="0"/>
         <v>0.90909090909090906</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="2">
         <v>1</v>
       </c>
       <c r="G36" s="11">
@@ -2207,43 +2224,654 @@
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B37">
-        <f>SUM(B2:B36)</f>
-        <v>306</v>
-      </c>
-      <c r="C37">
-        <f t="shared" ref="C37:D37" si="3">SUM(C2:C36)</f>
-        <v>305</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="3"/>
-        <v>301</v>
-      </c>
-      <c r="F37">
-        <f>COUNTIFS(F2:F36,"&gt;0")</f>
-        <v>22</v>
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8">
+        <v>11</v>
+      </c>
+      <c r="C37" s="8">
+        <v>11</v>
+      </c>
+      <c r="D37" s="8">
+        <v>11</v>
+      </c>
+      <c r="E37" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F37" s="8">
+        <v>2</v>
+      </c>
+      <c r="G37" s="13">
+        <v>11</v>
+      </c>
+      <c r="H37" s="13">
+        <v>0</v>
       </c>
       <c r="S37" s="8">
         <f>SUM(S2:S36)</f>
         <v>30</v>
       </c>
       <c r="T37" s="8">
-        <f t="shared" ref="T37:V37" si="4">SUM(T2:T36)</f>
+        <f t="shared" ref="T37:V37" si="3">SUM(T2:T36)</f>
         <v>4</v>
       </c>
       <c r="U37" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="V37" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="F38">
-        <f>SUM(F2:F36)/22</f>
-        <v>2.1363636363636362</v>
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8">
+        <v>8</v>
+      </c>
+      <c r="C38" s="8">
+        <v>8</v>
+      </c>
+      <c r="D38" s="8">
+        <v>8</v>
+      </c>
+      <c r="E38" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F38" s="8">
+        <v>1</v>
+      </c>
+      <c r="G38" s="13">
+        <v>1</v>
+      </c>
+      <c r="H38" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8">
+        <v>7</v>
+      </c>
+      <c r="C39" s="8">
+        <v>7</v>
+      </c>
+      <c r="D39" s="8">
+        <v>7</v>
+      </c>
+      <c r="E39" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F39" s="8">
+        <v>1</v>
+      </c>
+      <c r="G39" s="13">
+        <v>3</v>
+      </c>
+      <c r="H39" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8">
+        <v>6</v>
+      </c>
+      <c r="C40" s="8">
+        <v>6</v>
+      </c>
+      <c r="D40" s="8">
+        <v>6</v>
+      </c>
+      <c r="E40" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F40" s="8">
+        <v>0</v>
+      </c>
+      <c r="G40" s="13">
+        <v>0</v>
+      </c>
+      <c r="H40" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8">
+        <v>7</v>
+      </c>
+      <c r="C41" s="8">
+        <v>7</v>
+      </c>
+      <c r="D41" s="8">
+        <v>7</v>
+      </c>
+      <c r="E41" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F41" s="8">
+        <v>3</v>
+      </c>
+      <c r="G41" s="13">
+        <v>1</v>
+      </c>
+      <c r="H41" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8">
+        <v>9</v>
+      </c>
+      <c r="C42" s="8">
+        <v>9</v>
+      </c>
+      <c r="D42" s="8">
+        <v>9</v>
+      </c>
+      <c r="E42" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F42" s="8">
+        <v>1</v>
+      </c>
+      <c r="G42" s="13">
+        <v>4</v>
+      </c>
+      <c r="H42" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8">
+        <v>8</v>
+      </c>
+      <c r="C43" s="8">
+        <v>8</v>
+      </c>
+      <c r="D43" s="8">
+        <v>8</v>
+      </c>
+      <c r="E43" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F43" s="8">
+        <v>1</v>
+      </c>
+      <c r="G43" s="13">
+        <v>3</v>
+      </c>
+      <c r="H43" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8">
+        <v>7</v>
+      </c>
+      <c r="C44" s="8">
+        <v>7</v>
+      </c>
+      <c r="D44" s="8">
+        <v>6</v>
+      </c>
+      <c r="E44" s="12">
+        <f t="shared" si="0"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F44" s="8">
+        <v>2</v>
+      </c>
+      <c r="G44" s="13">
+        <v>2</v>
+      </c>
+      <c r="H44" s="13">
+        <v>3</v>
+      </c>
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8">
+        <v>10</v>
+      </c>
+      <c r="C45" s="8">
+        <v>10</v>
+      </c>
+      <c r="D45" s="8">
+        <v>10</v>
+      </c>
+      <c r="E45" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F45" s="8">
+        <v>3</v>
+      </c>
+      <c r="G45" s="13">
+        <v>111</v>
+      </c>
+      <c r="H45" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8">
+        <v>10</v>
+      </c>
+      <c r="C46" s="8">
+        <v>10</v>
+      </c>
+      <c r="D46" s="8">
+        <v>10</v>
+      </c>
+      <c r="E46" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F46" s="8">
+        <v>1</v>
+      </c>
+      <c r="G46" s="13">
+        <v>1</v>
+      </c>
+      <c r="H46" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8">
+        <v>7</v>
+      </c>
+      <c r="C47" s="8">
+        <v>7</v>
+      </c>
+      <c r="D47" s="8">
+        <v>7</v>
+      </c>
+      <c r="E47" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F47" s="8">
+        <v>2</v>
+      </c>
+      <c r="G47" s="13">
+        <v>11</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8">
+        <v>7</v>
+      </c>
+      <c r="C48" s="8">
+        <v>7</v>
+      </c>
+      <c r="D48" s="8">
+        <v>7</v>
+      </c>
+      <c r="E48" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F48" s="8">
+        <v>1</v>
+      </c>
+      <c r="G48" s="13">
+        <v>1</v>
+      </c>
+      <c r="H48" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8">
+        <v>11</v>
+      </c>
+      <c r="C49" s="8">
+        <v>10</v>
+      </c>
+      <c r="D49" s="8">
+        <v>10</v>
+      </c>
+      <c r="E49" s="14">
+        <f t="shared" si="0"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="F49" s="8">
+        <v>1</v>
+      </c>
+      <c r="G49" s="13">
+        <v>1</v>
+      </c>
+      <c r="H49" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8">
+        <v>5</v>
+      </c>
+      <c r="C50" s="8">
+        <v>5</v>
+      </c>
+      <c r="D50" s="8">
+        <v>5</v>
+      </c>
+      <c r="E50" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F50" s="8">
+        <v>1</v>
+      </c>
+      <c r="G50" s="13">
+        <v>1</v>
+      </c>
+      <c r="H50" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8">
+        <v>10</v>
+      </c>
+      <c r="C51" s="8">
+        <v>10</v>
+      </c>
+      <c r="D51" s="8">
+        <v>10</v>
+      </c>
+      <c r="E51" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F51" s="8">
+        <v>3</v>
+      </c>
+      <c r="G51" s="13">
+        <v>111</v>
+      </c>
+      <c r="H51" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="8">
+        <v>10</v>
+      </c>
+      <c r="C52" s="8">
+        <v>10</v>
+      </c>
+      <c r="D52" s="8">
+        <v>9</v>
+      </c>
+      <c r="E52" s="14">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="F52" s="8">
+        <v>5</v>
+      </c>
+      <c r="G52" s="13">
+        <v>11122</v>
+      </c>
+      <c r="H52" s="13">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="8">
+        <v>7</v>
+      </c>
+      <c r="C53" s="8">
+        <v>7</v>
+      </c>
+      <c r="D53" s="8">
+        <v>7</v>
+      </c>
+      <c r="E53" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F53" s="8">
+        <v>2</v>
+      </c>
+      <c r="G53" s="13">
+        <v>11</v>
+      </c>
+      <c r="H53" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8">
+        <v>11</v>
+      </c>
+      <c r="C54" s="8">
+        <v>11</v>
+      </c>
+      <c r="D54" s="8">
+        <v>11</v>
+      </c>
+      <c r="E54" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F54" s="8">
+        <v>2</v>
+      </c>
+      <c r="G54" s="13">
+        <v>12</v>
+      </c>
+      <c r="H54" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8">
+        <v>7</v>
+      </c>
+      <c r="C55" s="8">
+        <v>7</v>
+      </c>
+      <c r="D55" s="8">
+        <v>7</v>
+      </c>
+      <c r="E55" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F55" s="8">
+        <v>4</v>
+      </c>
+      <c r="G55" s="13">
+        <v>1113</v>
+      </c>
+      <c r="H55" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8">
+        <v>7</v>
+      </c>
+      <c r="C56" s="8">
+        <v>7</v>
+      </c>
+      <c r="D56" s="8">
+        <v>7</v>
+      </c>
+      <c r="E56" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F56" s="8">
+        <v>1</v>
+      </c>
+      <c r="G56" s="13">
+        <v>1</v>
+      </c>
+      <c r="H56" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <f>SUM(B2:B69)</f>
+        <v>471</v>
+      </c>
+      <c r="C70">
+        <f>SUM(C2:C69)</f>
+        <v>469</v>
+      </c>
+      <c r="D70">
+        <f>SUM(D2:D69)</f>
+        <v>463</v>
+      </c>
+      <c r="F70">
+        <f>COUNTIFS(F2:F69,"&gt;0")</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F71">
+        <f>SUM(F2:F69)/F70</f>
+        <v>2.0487804878048781</v>
       </c>
     </row>
   </sheetData>

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUFF\Documents\Egyetem\szakdolgozat\szakdolgozat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEB995F-7536-4EFF-B503-48029E77DD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581DC83A-9FD8-43B2-8A99-49F5DEFAB192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16B1F42F-497A-4036-8175-4FEE2FD02B2C}"/>
   </bookViews>
@@ -223,7 +223,29 @@
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
     <cellStyle name="Százalék" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -533,11 +555,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B00C75-DBA2-4DD4-8C14-92195DEE5212}">
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -609,7 +631,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="4">
-        <f t="shared" ref="E2:E56" si="0">D2/B2</f>
+        <f>D2/B2</f>
         <v>1</v>
       </c>
       <c r="F2" s="2">
@@ -632,15 +654,15 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2:V17" si="1">LEN($G2)-LEN(SUBSTITUTE($G2,T$1,""))</f>
+        <f t="shared" ref="T2:V17" si="0">LEN($G2)-LEN(SUBSTITUTE($G2,T$1,""))</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -658,7 +680,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E2:E65" si="1">D3/B3</f>
         <v>1</v>
       </c>
       <c r="F3">
@@ -689,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -707,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F4">
@@ -738,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -756,7 +778,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F5">
@@ -787,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -805,7 +827,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F6">
@@ -836,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -854,32 +876,32 @@
         <v>7</v>
       </c>
       <c r="E7" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V7">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6">
-        <v>2</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -897,32 +919,32 @@
         <v>8</v>
       </c>
       <c r="E8" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V8">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -940,32 +962,32 @@
         <v>8</v>
       </c>
       <c r="E9" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V9">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -983,32 +1005,32 @@
         <v>11</v>
       </c>
       <c r="E10" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="6">
+        <v>11</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V10">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10" s="6">
-        <v>11</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1026,32 +1048,32 @@
         <v>5</v>
       </c>
       <c r="E11" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V11">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <v>1</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1069,32 +1091,32 @@
         <v>10</v>
       </c>
       <c r="E12" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
-        <v>1</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1112,7 +1134,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F13">
@@ -1131,7 +1153,7 @@
         <v>15</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="S13">
         <f t="shared" si="2"/>
@@ -1146,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1164,7 +1186,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F14">
@@ -1183,7 +1205,7 @@
         <v>16</v>
       </c>
       <c r="M14">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="S14">
         <f t="shared" si="2"/>
@@ -1198,7 +1220,7 @@
         <v>2</v>
       </c>
       <c r="V14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1216,7 +1238,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F15">
@@ -1235,7 +1257,7 @@
         <v>17</v>
       </c>
       <c r="M15">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="S15">
         <f t="shared" si="2"/>
@@ -1268,7 +1290,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F16">
@@ -1287,7 +1309,7 @@
         <v>18</v>
       </c>
       <c r="M16">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="S16">
         <f t="shared" si="2"/>
@@ -1302,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="V16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1320,7 +1342,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9285714285714286</v>
       </c>
       <c r="F17">
@@ -1342,7 +1364,7 @@
         <v>19</v>
       </c>
       <c r="M17">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="S17">
         <f t="shared" si="2"/>
@@ -1357,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="V17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1375,7 +1397,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F18">
@@ -1394,7 +1416,7 @@
         <v>20</v>
       </c>
       <c r="M18">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="S18">
         <f t="shared" si="2"/>
@@ -1427,7 +1449,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F19">
@@ -1446,7 +1468,7 @@
         <v>21</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S19">
         <f t="shared" si="2"/>
@@ -1479,7 +1501,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F20">
@@ -1498,7 +1520,7 @@
         <v>22</v>
       </c>
       <c r="M20">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="S20">
         <f t="shared" si="2"/>
@@ -1531,7 +1553,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F21">
@@ -1545,7 +1567,7 @@
       </c>
       <c r="M21">
         <f>SUM(M13:M20)</f>
-        <v>471</v>
+        <v>555</v>
       </c>
       <c r="N21">
         <f>SUM(N13:N20)</f>
@@ -1582,7 +1604,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F22">
@@ -1595,8 +1617,8 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <f>SUM(B2:B69)</f>
-        <v>471</v>
+        <f>SUM(B2:B65)</f>
+        <v>555</v>
       </c>
       <c r="S22">
         <f t="shared" si="2"/>
@@ -1629,7 +1651,7 @@
         <v>12</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="F23">
@@ -1675,7 +1697,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F24">
@@ -1718,7 +1740,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9285714285714286</v>
       </c>
       <c r="F25">
@@ -1764,7 +1786,7 @@
         <v>7</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F26">
@@ -1807,7 +1829,7 @@
         <v>6</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F27">
@@ -1850,7 +1872,7 @@
         <v>7</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F28">
@@ -1893,7 +1915,7 @@
         <v>11</v>
       </c>
       <c r="E29" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F29">
@@ -1936,7 +1958,7 @@
         <v>11</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F30">
@@ -1979,7 +2001,7 @@
         <v>11</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F31">
@@ -2022,7 +2044,7 @@
         <v>8</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F32">
@@ -2065,7 +2087,7 @@
         <v>9</v>
       </c>
       <c r="E33" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F33">
@@ -2108,7 +2130,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F34">
@@ -2151,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F35">
@@ -2194,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="F36" s="2">
@@ -2237,7 +2259,7 @@
         <v>11</v>
       </c>
       <c r="E37" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F37" s="8">
@@ -2280,7 +2302,7 @@
         <v>8</v>
       </c>
       <c r="E38" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F38" s="8">
@@ -2307,7 +2329,7 @@
         <v>7</v>
       </c>
       <c r="E39" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F39" s="8">
@@ -2334,7 +2356,7 @@
         <v>6</v>
       </c>
       <c r="E40" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F40" s="8">
@@ -2361,7 +2383,7 @@
         <v>7</v>
       </c>
       <c r="E41" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F41" s="8">
@@ -2388,7 +2410,7 @@
         <v>9</v>
       </c>
       <c r="E42" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F42" s="8">
@@ -2415,7 +2437,7 @@
         <v>8</v>
       </c>
       <c r="E43" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F43" s="8">
@@ -2442,7 +2464,7 @@
         <v>6</v>
       </c>
       <c r="E44" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="F44" s="8">
@@ -2472,7 +2494,7 @@
         <v>10</v>
       </c>
       <c r="E45" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F45" s="8">
@@ -2499,7 +2521,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F46" s="8">
@@ -2526,7 +2548,7 @@
         <v>7</v>
       </c>
       <c r="E47" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F47" s="8">
@@ -2553,7 +2575,7 @@
         <v>7</v>
       </c>
       <c r="E48" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F48" s="8">
@@ -2580,7 +2602,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="F49" s="8">
@@ -2607,7 +2629,7 @@
         <v>5</v>
       </c>
       <c r="E50" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F50" s="8">
@@ -2634,7 +2656,7 @@
         <v>10</v>
       </c>
       <c r="E51" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F51" s="8">
@@ -2661,7 +2683,7 @@
         <v>9</v>
       </c>
       <c r="E52" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
       <c r="F52" s="8">
@@ -2691,7 +2713,7 @@
         <v>7</v>
       </c>
       <c r="E53" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F53" s="8">
@@ -2718,7 +2740,7 @@
         <v>11</v>
       </c>
       <c r="E54" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F54" s="8">
@@ -2745,7 +2767,7 @@
         <v>7</v>
       </c>
       <c r="E55" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F55" s="8">
@@ -2772,7 +2794,7 @@
         <v>7</v>
       </c>
       <c r="E56" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F56" s="8">
@@ -2789,92 +2811,283 @@
       <c r="A57" s="2">
         <v>56</v>
       </c>
+      <c r="B57" s="8">
+        <v>6</v>
+      </c>
+      <c r="C57" s="8">
+        <v>6</v>
+      </c>
+      <c r="D57" s="8">
+        <v>6</v>
+      </c>
+      <c r="E57" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F57" s="8">
+        <v>0</v>
+      </c>
+      <c r="G57" s="13">
+        <v>0</v>
+      </c>
+      <c r="H57" s="13">
+        <v>3</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
+      <c r="B58" s="8">
+        <v>7</v>
+      </c>
+      <c r="C58" s="8">
+        <v>7</v>
+      </c>
+      <c r="D58" s="8">
+        <v>7</v>
+      </c>
+      <c r="E58" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F58" s="8">
+        <v>0</v>
+      </c>
+      <c r="G58" s="13">
+        <v>0</v>
+      </c>
+      <c r="H58" s="13">
+        <v>3</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
+      <c r="B59" s="8">
+        <v>9</v>
+      </c>
+      <c r="C59" s="8">
+        <v>9</v>
+      </c>
+      <c r="D59" s="8">
+        <v>9</v>
+      </c>
+      <c r="E59" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F59" s="8">
+        <v>1</v>
+      </c>
+      <c r="G59" s="13">
+        <v>3</v>
+      </c>
+      <c r="H59" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
+      <c r="B60" s="8">
+        <v>8</v>
+      </c>
+      <c r="C60" s="8">
+        <v>8</v>
+      </c>
+      <c r="D60" s="8">
+        <v>8</v>
+      </c>
+      <c r="E60" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F60" s="8">
+        <v>1</v>
+      </c>
+      <c r="G60" s="13">
+        <v>1</v>
+      </c>
+      <c r="H60" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
+      <c r="B61" s="8">
+        <v>14</v>
+      </c>
+      <c r="C61" s="8">
+        <v>13</v>
+      </c>
+      <c r="D61" s="8">
+        <v>13</v>
+      </c>
+      <c r="E61" s="14">
+        <f t="shared" si="1"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="F61" s="8">
+        <v>4</v>
+      </c>
+      <c r="G61" s="13">
+        <v>2223</v>
+      </c>
+      <c r="H61" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
+      <c r="B62" s="8">
+        <v>10</v>
+      </c>
+      <c r="C62" s="8">
+        <v>10</v>
+      </c>
+      <c r="D62" s="8">
+        <v>10</v>
+      </c>
+      <c r="E62" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F62" s="8">
+        <v>1</v>
+      </c>
+      <c r="G62" s="13">
+        <v>1</v>
+      </c>
+      <c r="H62" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
+      <c r="B63" s="8">
+        <v>7</v>
+      </c>
+      <c r="C63" s="8">
+        <v>7</v>
+      </c>
+      <c r="D63" s="8">
+        <v>7</v>
+      </c>
+      <c r="E63" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F63" s="8">
+        <v>0</v>
+      </c>
+      <c r="G63" s="13">
+        <v>0</v>
+      </c>
+      <c r="H63" s="13">
+        <v>3</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="8">
+        <v>8</v>
+      </c>
+      <c r="C64" s="8">
+        <v>8</v>
+      </c>
+      <c r="D64" s="8">
+        <v>8</v>
+      </c>
+      <c r="E64" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F64" s="8">
+        <v>1</v>
+      </c>
+      <c r="G64" s="13">
+        <v>1</v>
+      </c>
+      <c r="H64" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B70">
-        <f>SUM(B2:B69)</f>
-        <v>471</v>
-      </c>
-      <c r="C70">
-        <f>SUM(C2:C69)</f>
-        <v>469</v>
-      </c>
-      <c r="D70">
-        <f>SUM(D2:D69)</f>
-        <v>463</v>
-      </c>
-      <c r="F70">
-        <f>COUNTIFS(F2:F69,"&gt;0")</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F71">
-        <f>SUM(F2:F69)/F70</f>
-        <v>2.0487804878048781</v>
-      </c>
+      <c r="B65" s="8">
+        <v>15</v>
+      </c>
+      <c r="C65" s="8">
+        <v>15</v>
+      </c>
+      <c r="D65" s="8">
+        <v>15</v>
+      </c>
+      <c r="E65" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F65" s="8">
+        <v>2</v>
+      </c>
+      <c r="G65" s="13">
+        <v>12</v>
+      </c>
+      <c r="H65" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="2"/>
+      <c r="B66">
+        <f>SUM(B2:B65)</f>
+        <v>555</v>
+      </c>
+      <c r="C66">
+        <f>SUM(C2:C65)</f>
+        <v>552</v>
+      </c>
+      <c r="D66">
+        <f>SUM(D2:D65)</f>
+        <v>546</v>
+      </c>
+      <c r="F66">
+        <f>COUNTIFS(F2:F65,"&gt;0")</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="2"/>
+      <c r="F67">
+        <f>SUM(F2:F65)/F66</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="2"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="M21">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
+      <formula>$M$22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>$M$22</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUFF\Documents\Egyetem\szakdolgozat\szakdolgozat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581DC83A-9FD8-43B2-8A99-49F5DEFAB192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E45517F-F739-4C76-A589-838577DA7316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16B1F42F-497A-4036-8175-4FEE2FD02B2C}"/>
   </bookViews>
@@ -165,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -182,21 +182,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -212,7 +203,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -223,7 +213,7 @@
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
     <cellStyle name="Százalék" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -235,13 +225,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -557,9 +540,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B00C75-DBA2-4DD4-8C14-92195DEE5212}">
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q62" sqref="Q62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,7 +663,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" ref="E2:E65" si="1">D3/B3</f>
+        <f t="shared" ref="E3:E65" si="1">D3/B3</f>
         <v>1</v>
       </c>
       <c r="F3">
@@ -699,7 +682,7 @@
         <v>11</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:V36" si="2">LEN($G3)-LEN(SUBSTITUTE($G3,S$1,""))</f>
+        <f t="shared" ref="S3:V37" si="2">LEN($G3)-LEN(SUBSTITUTE($G3,S$1,""))</f>
         <v>0</v>
       </c>
       <c r="T3">
@@ -2186,7 +2169,7 @@
         <v>-1</v>
       </c>
       <c r="S35">
-        <f t="shared" si="2"/>
+        <f>LEN($G35)-LEN(SUBSTITUTE($G35,S$1,""))</f>
         <v>0</v>
       </c>
       <c r="T35">
@@ -2215,32 +2198,32 @@
       <c r="D36" s="2">
         <v>10</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="9">
         <f t="shared" si="1"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="F36" s="2">
         <v>1</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="10">
         <v>5</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="10">
         <v>-1</v>
       </c>
-      <c r="S36" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T36" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U36" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V36" s="9">
+      <c r="S36" s="2">
+        <f>LEN($G36)-LEN(SUBSTITUTE($G36,S$1,""))</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2258,34 +2241,34 @@
       <c r="D37" s="8">
         <v>11</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F37" s="8">
         <v>2</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="12">
         <v>11</v>
       </c>
-      <c r="H37" s="13">
-        <v>0</v>
-      </c>
-      <c r="S37" s="8">
-        <f>SUM(S2:S36)</f>
-        <v>30</v>
-      </c>
-      <c r="T37" s="8">
-        <f t="shared" ref="T37:V37" si="3">SUM(T2:T36)</f>
-        <v>4</v>
-      </c>
-      <c r="U37" s="8">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="V37" s="8">
-        <f t="shared" si="3"/>
-        <v>4</v>
+      <c r="H37" s="12">
+        <v>0</v>
+      </c>
+      <c r="S37" s="2">
+        <f t="shared" ref="S37:V65" si="3">LEN($G37)-LEN(SUBSTITUTE($G37,S$1,""))</f>
+        <v>2</v>
+      </c>
+      <c r="T37" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V37" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
@@ -2301,17 +2284,33 @@
       <c r="D38" s="8">
         <v>8</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F38" s="8">
         <v>1</v>
       </c>
-      <c r="G38" s="13">
-        <v>1</v>
-      </c>
-      <c r="H38" s="13">
+      <c r="G38" s="12">
+        <v>1</v>
+      </c>
+      <c r="H38" s="12">
+        <v>0</v>
+      </c>
+      <c r="S38" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T38" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V38" s="2">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2328,17 +2327,33 @@
       <c r="D39" s="8">
         <v>7</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F39" s="8">
         <v>1</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="12">
         <v>3</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="12">
+        <v>0</v>
+      </c>
+      <c r="S39" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V39" s="2">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2355,18 +2370,34 @@
       <c r="D40" s="8">
         <v>6</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F40" s="8">
         <v>0</v>
       </c>
-      <c r="G40" s="13">
-        <v>0</v>
-      </c>
-      <c r="H40" s="13">
+      <c r="G40" s="12">
+        <v>0</v>
+      </c>
+      <c r="H40" s="12">
         <v>3</v>
+      </c>
+      <c r="S40" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V40" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
@@ -2382,18 +2413,34 @@
       <c r="D41" s="8">
         <v>7</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F41" s="8">
         <v>3</v>
       </c>
-      <c r="G41" s="13">
-        <v>1</v>
-      </c>
-      <c r="H41" s="13">
-        <v>1</v>
+      <c r="G41" s="12">
+        <v>1</v>
+      </c>
+      <c r="H41" s="12">
+        <v>1</v>
+      </c>
+      <c r="S41" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T41" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V41" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
@@ -2409,18 +2456,34 @@
       <c r="D42" s="8">
         <v>9</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F42" s="8">
         <v>1</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="12">
         <v>4</v>
       </c>
-      <c r="H42" s="13">
-        <v>0</v>
+      <c r="H42" s="12">
+        <v>0</v>
+      </c>
+      <c r="S42" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U42" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V42" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
@@ -2436,18 +2499,34 @@
       <c r="D43" s="8">
         <v>8</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F43" s="8">
         <v>1</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="12">
         <v>3</v>
       </c>
-      <c r="H43" s="13">
-        <v>1</v>
+      <c r="H43" s="12">
+        <v>1</v>
+      </c>
+      <c r="S43" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V43" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
@@ -2463,21 +2542,37 @@
       <c r="D44" s="8">
         <v>6</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="11">
         <f t="shared" si="1"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="F44" s="8">
         <v>2</v>
       </c>
-      <c r="G44" s="13">
-        <v>2</v>
-      </c>
-      <c r="H44" s="13">
+      <c r="G44" s="12">
+        <v>2</v>
+      </c>
+      <c r="H44" s="12">
         <v>3</v>
       </c>
       <c r="I44" t="s">
         <v>13</v>
+      </c>
+      <c r="S44" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U44" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V44" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
@@ -2493,17 +2588,33 @@
       <c r="D45" s="8">
         <v>10</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F45" s="8">
         <v>3</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G45" s="12">
         <v>111</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H45" s="12">
+        <v>0</v>
+      </c>
+      <c r="S45" s="2">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="T45" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U45" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V45" s="2">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2520,18 +2631,34 @@
       <c r="D46" s="8">
         <v>10</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F46" s="8">
         <v>1</v>
       </c>
-      <c r="G46" s="13">
-        <v>1</v>
-      </c>
-      <c r="H46" s="13">
-        <v>2</v>
+      <c r="G46" s="12">
+        <v>1</v>
+      </c>
+      <c r="H46" s="12">
+        <v>2</v>
+      </c>
+      <c r="S46" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T46" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U46" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V46" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
@@ -2547,17 +2674,33 @@
       <c r="D47" s="8">
         <v>7</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F47" s="8">
         <v>2</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G47" s="12">
         <v>11</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H47" s="12">
+        <v>0</v>
+      </c>
+      <c r="S47" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="T47" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U47" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V47" s="2">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2574,21 +2717,37 @@
       <c r="D48" s="8">
         <v>7</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F48" s="8">
         <v>1</v>
       </c>
-      <c r="G48" s="13">
-        <v>1</v>
-      </c>
-      <c r="H48" s="13">
+      <c r="G48" s="12">
+        <v>1</v>
+      </c>
+      <c r="H48" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S48" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T48" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U48" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V48" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2601,21 +2760,37 @@
       <c r="D49" s="8">
         <v>10</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="13">
         <f t="shared" si="1"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="F49" s="8">
         <v>1</v>
       </c>
-      <c r="G49" s="13">
-        <v>1</v>
-      </c>
-      <c r="H49" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G49" s="12">
+        <v>1</v>
+      </c>
+      <c r="H49" s="12">
+        <v>1</v>
+      </c>
+      <c r="S49" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T49" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U49" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V49" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2628,21 +2803,37 @@
       <c r="D50" s="8">
         <v>5</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E50" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F50" s="8">
         <v>1</v>
       </c>
-      <c r="G50" s="13">
-        <v>1</v>
-      </c>
-      <c r="H50" s="13">
+      <c r="G50" s="12">
+        <v>1</v>
+      </c>
+      <c r="H50" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S50" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T50" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U50" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V50" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2655,21 +2846,37 @@
       <c r="D51" s="8">
         <v>10</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F51" s="8">
         <v>3</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G51" s="12">
         <v>111</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H51" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S51" s="2">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="T51" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U51" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V51" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2682,24 +2889,40 @@
       <c r="D52" s="8">
         <v>9</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E52" s="13">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
       <c r="F52" s="8">
         <v>5</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G52" s="12">
         <v>11122</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H52" s="12">
         <v>0</v>
       </c>
       <c r="I52" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S52" s="2">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="T52" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="U52" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V52" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -2712,21 +2935,37 @@
       <c r="D53" s="8">
         <v>7</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F53" s="8">
         <v>2</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G53" s="12">
         <v>11</v>
       </c>
-      <c r="H53" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H53" s="12">
+        <v>0</v>
+      </c>
+      <c r="S53" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="T53" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U53" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V53" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -2739,21 +2978,37 @@
       <c r="D54" s="8">
         <v>11</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E54" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F54" s="8">
         <v>2</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G54" s="12">
         <v>12</v>
       </c>
-      <c r="H54" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H54" s="12">
+        <v>0</v>
+      </c>
+      <c r="S54" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T54" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U54" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V54" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -2766,21 +3021,37 @@
       <c r="D55" s="8">
         <v>7</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F55" s="8">
         <v>4</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G55" s="12">
         <v>1113</v>
       </c>
-      <c r="H55" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H55" s="12">
+        <v>2</v>
+      </c>
+      <c r="S55" s="2">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="T55" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U55" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V55" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -2793,21 +3064,37 @@
       <c r="D56" s="8">
         <v>7</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E56" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F56" s="8">
         <v>1</v>
       </c>
-      <c r="G56" s="13">
-        <v>1</v>
-      </c>
-      <c r="H56" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G56" s="12">
+        <v>1</v>
+      </c>
+      <c r="H56" s="12">
+        <v>1</v>
+      </c>
+      <c r="S56" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T56" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U56" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V56" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -2820,21 +3107,37 @@
       <c r="D57" s="8">
         <v>6</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F57" s="8">
         <v>0</v>
       </c>
-      <c r="G57" s="13">
-        <v>0</v>
-      </c>
-      <c r="H57" s="13">
+      <c r="G57" s="12">
+        <v>0</v>
+      </c>
+      <c r="H57" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S57" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T57" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U57" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V57" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -2847,21 +3150,37 @@
       <c r="D58" s="8">
         <v>7</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E58" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F58" s="8">
         <v>0</v>
       </c>
-      <c r="G58" s="13">
-        <v>0</v>
-      </c>
-      <c r="H58" s="13">
+      <c r="G58" s="12">
+        <v>0</v>
+      </c>
+      <c r="H58" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S58" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T58" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U58" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V58" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -2874,21 +3193,37 @@
       <c r="D59" s="8">
         <v>9</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E59" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F59" s="8">
         <v>1</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G59" s="12">
         <v>3</v>
       </c>
-      <c r="H59" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H59" s="12">
+        <v>1</v>
+      </c>
+      <c r="S59" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T59" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U59" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V59" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -2901,21 +3236,37 @@
       <c r="D60" s="8">
         <v>8</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E60" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F60" s="8">
         <v>1</v>
       </c>
-      <c r="G60" s="13">
-        <v>1</v>
-      </c>
-      <c r="H60" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G60" s="12">
+        <v>1</v>
+      </c>
+      <c r="H60" s="12">
+        <v>0</v>
+      </c>
+      <c r="S60" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T60" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U60" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V60" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -2928,21 +3279,37 @@
       <c r="D61" s="8">
         <v>13</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E61" s="13">
         <f t="shared" si="1"/>
         <v>0.9285714285714286</v>
       </c>
       <c r="F61" s="8">
         <v>4</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G61" s="12">
         <v>2223</v>
       </c>
-      <c r="H61" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H61" s="12">
+        <v>1</v>
+      </c>
+      <c r="S61" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T61" s="2">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="U61" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V61" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -2955,21 +3322,37 @@
       <c r="D62" s="8">
         <v>10</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E62" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F62" s="8">
         <v>1</v>
       </c>
-      <c r="G62" s="13">
-        <v>1</v>
-      </c>
-      <c r="H62" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G62" s="12">
+        <v>1</v>
+      </c>
+      <c r="H62" s="12">
+        <v>1</v>
+      </c>
+      <c r="S62" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T62" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U62" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V62" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -2982,21 +3365,37 @@
       <c r="D63" s="8">
         <v>7</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E63" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F63" s="8">
         <v>0</v>
       </c>
-      <c r="G63" s="13">
-        <v>0</v>
-      </c>
-      <c r="H63" s="13">
+      <c r="G63" s="12">
+        <v>0</v>
+      </c>
+      <c r="H63" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S63" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T63" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U63" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V63" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -3009,21 +3408,37 @@
       <c r="D64" s="8">
         <v>8</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E64" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F64" s="8">
         <v>1</v>
       </c>
-      <c r="G64" s="13">
-        <v>1</v>
-      </c>
-      <c r="H64" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G64" s="12">
+        <v>1</v>
+      </c>
+      <c r="H64" s="12">
+        <v>0</v>
+      </c>
+      <c r="S64" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T64" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U64" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V64" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -3036,21 +3451,37 @@
       <c r="D65" s="8">
         <v>15</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E65" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F65" s="8">
         <v>2</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G65" s="12">
         <v>12</v>
       </c>
-      <c r="H65" s="13">
+      <c r="H65" s="12">
         <v>-1</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="S65" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T65" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U65" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V65" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66">
         <f>SUM(B2:B65)</f>
@@ -3068,15 +3499,31 @@
         <f>COUNTIFS(F2:F65,"&gt;0")</f>
         <v>47</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="S66" s="8">
+        <f>SUM(S2:S65)</f>
+        <v>60</v>
+      </c>
+      <c r="T66" s="8">
+        <f>SUM(T2:T65)</f>
+        <v>12</v>
+      </c>
+      <c r="U66" s="8">
+        <f>SUM(U2:U65)</f>
+        <v>13</v>
+      </c>
+      <c r="V66" s="8">
+        <f>SUM(V2:V65)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="F67">
         <f>SUM(F2:F65)/F66</f>
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
     </row>
   </sheetData>

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUFF\Documents\Egyetem\szakdolgozat\szakdolgozat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E45517F-F739-4C76-A589-838577DA7316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E3D3FB-8DF1-4E7D-A2A1-4D90BF2AEE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16B1F42F-497A-4036-8175-4FEE2FD02B2C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16B1F42F-497A-4036-8175-4FEE2FD02B2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -208,6 +208,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -540,9 +546,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B00C75-DBA2-4DD4-8C14-92195DEE5212}">
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q62" sqref="Q62"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3323,7 +3329,7 @@
         <v>10</v>
       </c>
       <c r="E62" s="13">
-        <f t="shared" si="1"/>
+        <f>D62/B62</f>
         <v>1</v>
       </c>
       <c r="F62" s="8">
@@ -3438,45 +3444,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+    <row r="65" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="16">
         <v>64</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="17">
         <v>15</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="17">
         <v>15</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="17">
         <v>15</v>
       </c>
-      <c r="E65" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F65" s="8">
-        <v>2</v>
-      </c>
-      <c r="G65" s="12">
+      <c r="E65" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F65" s="17">
+        <v>2</v>
+      </c>
+      <c r="G65" s="19">
         <v>12</v>
       </c>
-      <c r="H65" s="12">
+      <c r="H65" s="19">
         <v>-1</v>
       </c>
-      <c r="S65" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="T65" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U65" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V65" s="2">
+      <c r="S65" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T65" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U65" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V65" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3518,13 +3524,26 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
-      <c r="F67">
+      <c r="C67" s="14">
+        <f>C66/B66</f>
+        <v>0.99459459459459465</v>
+      </c>
+      <c r="D67" s="14">
+        <f>D66/C66</f>
+        <v>0.98913043478260865</v>
+      </c>
+      <c r="F67" s="15">
         <f>SUM(F2:F65)/F66</f>
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
+      <c r="D68" s="14">
+        <f>D66/B66</f>
+        <v>0.98378378378378384</v>
+      </c>
+      <c r="F68" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="M21">

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUFF\Documents\Egyetem\szakdolgozat\szakdolgozat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E3D3FB-8DF1-4E7D-A2A1-4D90BF2AEE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E79F8D-147D-4EBC-BA89-B3A5E6E54413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16B1F42F-497A-4036-8175-4FEE2FD02B2C}"/>
   </bookViews>
@@ -544,11 +544,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B00C75-DBA2-4DD4-8C14-92195DEE5212}">
-  <dimension ref="A1:V68"/>
+  <dimension ref="A1:V77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H66" sqref="H66"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3536,6 +3536,13 @@
         <f>SUM(F2:F65)/F66</f>
         <v>2</v>
       </c>
+      <c r="H67">
+        <v>-5</v>
+      </c>
+      <c r="I67">
+        <f>COUNTIFS($H$2:$H$65,H67)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
@@ -3544,6 +3551,94 @@
         <v>0.98378378378378384</v>
       </c>
       <c r="F68" s="15"/>
+      <c r="H68">
+        <v>-4</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ref="I68:I78" si="4">COUNTIFS($H$2:$H$65,H68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H69">
+        <v>-3</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H70">
+        <v>-2</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H71">
+        <v>-1</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H75">
+        <v>3</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H76">
+        <v>4</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H77">
+        <v>5</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="M21">
